--- a/clean/name/08004C.xlsx
+++ b/clean/name/08004C.xlsx
@@ -5110,6 +5110,11 @@
           <t>hematocrite (hct)</t>
         </is>
       </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
       <c r="D267">
         <v>61</v>
       </c>
